--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -575,7 +575,7 @@
         <v>45954.45479166666</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>45897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44601</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45460.42362268519</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45331.59417824074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44907</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45643.5128587963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>45833.33390046296</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44833.38484953704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45817.61070601852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44835</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45422.55388888889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45790.64148148148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>45188</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44616.34016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>45825.50337962963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45422.55782407407</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>45637.48934027777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45937.60804398148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>45572</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45588.39068287037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44601</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45281.73535879629</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45151</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44952</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45799.65584490741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>45803.59976851852</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45569.43392361111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45817.60202546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45265</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>45294</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>44818</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>45475.71474537037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>45475.74412037037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45588.3856712963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45014.60708333334</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45183</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>44507.63101851852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44781.66103009259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44536</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44281.5744212963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44615.63362268519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44264</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44266</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44588.46016203704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44690</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44487</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44266</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44298.47568287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44273</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44298.44777777778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>44733</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>44781.65829861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44378</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44459.53096064815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>44386</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>44236</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44412</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>44676.46662037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>44442</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>44578</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>44412</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>44799.53682870371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>44705</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>44743.43195601852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>44720.48855324074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44376.87699074074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44615</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44608</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44823</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>44657</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44837.32274305556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44364</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44349</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44685</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44685</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44705</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44705</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45632.64731481481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45673.57033564815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45348</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>45103.74606481481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>45621.42699074074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45118.91273148148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45196.44567129629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>45062.64560185185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>44858.51763888889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>45698.61976851852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>44659</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>45189.40020833333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>45182.36677083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>45201</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45769.62415509259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44368</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44895.50105324074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>45590.54883101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>45198</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>45161.90960648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45384.43790509259</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>44952</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44494</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44901.30459490741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45326.61966435185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>44823.40733796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>44823</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>45358.67704861111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>45674.44443287037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45384.79944444444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>45799.42884259259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>45412.63944444444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45671.39305555556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44659</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45328.46517361111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>45151</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>45666.41128472222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>45798.3478587963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>45197</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45798.35645833334</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>45803.59505787037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44504</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44895</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>45773.45891203704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45887.47719907408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>45587.52200231481</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45884.49962962963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>45632.6547337963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>45162.59163194444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>45693.72674768518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>45804.39546296297</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>45884.50131944445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>45811.34417824074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>45470.60967592592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>45810.68019675926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>45443</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45888.58700231482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45812.32118055555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45002.33766203704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45348</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>45454.6241087963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>45544.4146412037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45817.47203703703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>45896.50040509259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45897.48766203703</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45804.48175925926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45819.35086805555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45418.36640046296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45565.42386574074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>45833.32277777778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45597</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45902.90766203704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45902.42664351852</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45903.23393518518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45202.49175925926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>45905.31484953704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44545.71697916667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45904.65920138889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45693.7809375</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45904.65074074074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45904.47331018518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45904.59520833333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>45905.33233796297</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45904.81601851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>45825.35626157407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45150.39412037037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>45825.51634259259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>45908.50071759259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45834.48267361111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45825.66005787037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45646.55346064815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>45909.35702546296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>45908.36853009259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45834.47009259259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45909.61884259259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45402.46005787037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>45825.54019675926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>45911.35574074074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45911.34137731481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>45459.38876157408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>45915.55395833333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45915.58008101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>45825.88684027778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44743.57612268518</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45734.48722222223</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44942.52454861111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45015.59582175926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45831.55090277778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45922.56030092593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45359.37732638889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45832.64126157408</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>45925.3152662037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45925.63402777778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>45446.94362268518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>45925.52858796297</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44601.37392361111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45834.64814814815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45929.57760416667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44743</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45929.51806712963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45834.65471064814</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45929.67972222222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>45929.52040509259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>45068.46453703703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>45930.54122685185</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>45929.75582175926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>45415.55523148148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>45839.45863425926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>45932</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>45773</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>45932</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>44257</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>45546.64791666667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         <v>45932</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45840.58383101852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>45939.34302083333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>45840.58173611111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44364.47981481482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>45639.71099537037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>45639.71262731482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>45939.34195601852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>45940.59493055556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45440.38983796296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>45440.40162037037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>45842.81519675926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>45940.59416666667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>45845.35856481481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>45257</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>45846.5428587963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>45075</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>45590.55503472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>45849.45528935185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44442</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>45713.62387731481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45946.72012731482</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44592</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45946.36746527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45782</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45478.41396990741</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44823.37871527778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44249</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45139.73614583333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44776</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45950.88504629629</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45632</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45834.64337962963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45951.85037037037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45951.88065972222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45951.85413194444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45951.90053240741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44970</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45547.32871527778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>45734.45221064815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44901</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>45265</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44952</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44833.46141203704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45705.33614583333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44511</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45246.67354166666</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45958.36256944444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45958.36354166667</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44958.67679398148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45387.6203587963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44236</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45037.56935185185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44952</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45698.60086805555</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45733.46701388889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45714.36677083333</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45966.45077546296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45882</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>45966.44347222222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>45966.42574074074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>45883.55738425926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>45966.46392361111</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45883.56460648148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44328</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>45971.46984953704</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45973.62712962963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45672.58420138889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>45973.66523148148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>45737.33689814815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>45075</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>45974.39293981482</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>45974.39509259259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45974.59179398148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45008</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45974.54357638889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45978.55325231481</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44742.33100694444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45978.65059027778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>46020.5050462963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44942.51903935185</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45981.55913194444</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45162.25072916667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45981.39206018519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45982.86425925926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45272.63121527778</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45085.67021990741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45982.85844907408</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44907.55690972223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>45986.42119212963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45986.40865740741</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>46031.52755787037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>45561.36438657407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>46030.50331018519</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>45989.47519675926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>45428.46391203703</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>45327.61145833333</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>46030.56324074074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>46031.53226851852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>46031.53541666667</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>46035.46143518519</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45993.38215277778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>46035.45893518518</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45993.29204861111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44855</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>46028</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44295</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45393.3578587963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45722.7066087963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45342</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45995.67278935185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45995.68126157407</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45995.68282407407</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45994.45475694445</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45994.48671296296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45994.48840277778</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45722.63233796296</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>46037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45632</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44428</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>46000</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>46000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>46042.52597222223</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>46000</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>45326.67398148148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>45644.35127314815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>45755.44237268518</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>46000.70355324074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>45566.51762731482</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>46003</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>45994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>45994</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44503</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>45561.36818287037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>45624.84674768519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>46044.56547453703</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>46003.5702662037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>45279</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>46048.41366898148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44621</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>46048</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>46048.40251157407</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44432.57885416667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>46006.57706018518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>46006.57251157407</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>45615.60525462963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>45616.65384259259</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>46048.31030092593</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>45546.34902777777</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>45351.63478009259</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>44468</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45609.35231481482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45443</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>45121</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>45404</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>44909.63509259259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>44648.46975694445</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44825.8475</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45588.38049768518</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>44966.38423611111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>46056.43436342593</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>46056.42912037037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>46055.68174768519</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>44460</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>44875.48599537037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>45078</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>45162.62353009259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>45346.61512731481</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>45623.59274305555</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44781.39569444444</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>45538.46005787037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>45152.45721064815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>46059.57670138889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>45602.38895833334</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>45621.43332175926</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44823</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>45475.72972222222</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>45475.73616898148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>45636.39221064815</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44592</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>45217</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25333,7 +25333,7 @@
         <v>45762.67017361111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45763.39306712963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25447,7 +25447,7 @@
         <v>45763.39765046296</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>45675.8675</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>44958.66506944445</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44643</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>45173.48878472222</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>45761.83359953704</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>45624.8387037037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>45355.76253472222</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>45609.34872685185</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>45609.39646990741</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>45616.63967592592</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>45237</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>45412.63640046296</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>45572.34341435185</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44705.70888888889</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>45454.66747685185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>45615.72082175926</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44600</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44701</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45425.4653587963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44960.48239583334</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45467.61216435185</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44614</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44601.60956018518</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>45531.46454861111</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>45103</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44952</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44952</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44952</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>44237</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>45565.41542824074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>45404.72262731481</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>44952.60282407407</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>44916.6887037037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>45182.36564814814</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>45763.40197916667</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>45763.40989583333</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44952</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44952</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44462</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44959</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45762.65144675926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>45533</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>45587.53412037037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>45702.47100694444</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>45187.47217592593</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>45686.6608912037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>44621.69106481481</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45150.39050925926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44858.49765046296</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45119.59131944444</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45415.5575925926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45049</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45049.6524537037</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45162</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45478.53525462963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44425.5575</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>45693.74730324074</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>45047</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>45600.62725694444</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>45600.63454861111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>45132</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>45181.86436342593</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45217</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45092.58068287037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44959.56513888889</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>45273</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44237</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44277</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44685</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>45530.66170138889</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>45595.53287037037</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>45722.70744212963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29866,7 +29866,7 @@
         <v>45189</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>44902</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>45541.39973379629</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>45151</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>45520.36324074074</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30151,7 +30151,7 @@
         <v>45006</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30208,7 +30208,7 @@
         <v>44277.50083333333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         <v>44382</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>44627.37660879629</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30384,7 +30384,7 @@
         <v>45603.408125</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>45049</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>45254.48559027778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44812</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30612,7 +30612,7 @@
         <v>44442</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30669,7 +30669,7 @@
         <v>45400.9152662037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>44300</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45533.35982638889</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>45272.60196759259</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>45628.4080787037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>45628.44436342592</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>45124.4128587963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31068,7 +31068,7 @@
         <v>45593.41086805556</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31125,7 +31125,7 @@
         <v>44388</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45566.37298611111</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45675.87553240741</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45777.435</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45731.49915509259</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45779.45350694445</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>44910</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31529,7 +31529,7 @@
         <v>45782.76021990741</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         <v>45785.37339120371</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>45785.42474537037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45785.39237268519</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45785.37185185185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45000.33078703703</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45785.40502314815</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>45785.40935185185</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>45786.34755787037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>45736.84825231481</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>45737.30388888889</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>45723.39030092592</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>45736.8590625</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>45743.55642361111</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>45723.38274305555</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>45743.5306712963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>45790.41216435185</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>45790.32974537037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>45743.55011574074</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>45790.41703703703</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>45719.39439814815</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>45713.39502314815</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>45713.37586805555</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>45737.31084490741</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>45737.31587962963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45743.52303240741</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45743.53940972222</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45792.67938657408</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45791.78855324074</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>45796.36909722222</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>45796.36421296297</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -575,7 +575,7 @@
         <v>45954.45479166666</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>45897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44601</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45460.42362268519</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45331.59417824074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44907</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45643.5128587963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>45833.33390046296</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44833.38484953704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45817.61070601852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44835</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45422.55388888889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45790.64148148148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>45188</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44616.34016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>45825.50337962963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45422.55782407407</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>45637.48934027777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45937.60804398148</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>45572</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45588.39068287037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44601</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45281.73535879629</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45151</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44952</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45799.65584490741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>45803.59976851852</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45569.43392361111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45817.60202546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45265</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>45294</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>44818</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>45475.71474537037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>45475.74412037037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45588.3856712963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45014.60708333334</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45183</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>44507.63101851852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44781.66103009259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44536</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44281.5744212963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44615.63362268519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44264</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44266</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44588.46016203704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44690</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44865</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44487</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44266</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44298.47568287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44273</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44298.44777777778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>44733</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>44781.65829861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44378</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44459.53096064815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>44386</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>44236</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44452</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44412</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>44676.46662037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>44442</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>44578</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>44412</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>44799.53682870371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>44705</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>44743.43195601852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>44720.48855324074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44376.87699074074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44615</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44608</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44823</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>44657</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44837.32274305556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44364</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44349</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44685</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44685</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44705</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44705</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45632.64731481481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45673.57033564815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45348</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>45103.74606481481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>45621.42699074074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45118.91273148148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45196.44567129629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>45062.64560185185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>44858.51763888889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>45698.61976851852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>44659</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>45189.40020833333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>45182.36677083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>45201</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45769.62415509259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44368</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44895.50105324074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>45590.54883101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>45198</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>45161.90960648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>45384.43790509259</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>44952</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44494</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44901.30459490741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>45326.61966435185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>44823.40733796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>44823</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
         <v>45358.67704861111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>45674.44443287037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45384.79944444444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>45799.42884259259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>45412.63944444444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45671.39305555556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         <v>44659</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>45328.46517361111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>45151</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>45666.41128472222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>45798.3478587963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>45197</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45798.35645833334</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         <v>45803.59505787037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44504</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>44895</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>45773.45891203704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45887.47719907408</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>45587.52200231481</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45884.49962962963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         <v>45632.6547337963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         <v>45162.59163194444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>45693.72674768518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>45804.39546296297</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>45884.50131944445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>45811.34417824074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>45470.60967592592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>45810.68019675926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>45443</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>45888.58700231482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>45812.32118055555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>45002.33766203704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>45348</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>45454.6241087963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>45544.4146412037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>45895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45817.47203703703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>45896.50040509259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45897.48766203703</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44427</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45804.48175925926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45819.35086805555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45418.36640046296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45565.42386574074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>45833.32277777778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45597</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45902.90766203704</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45902.42664351852</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>45903.23393518518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>45202.49175925926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>45905.31484953704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44545.71697916667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45904.65920138889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45693.7809375</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45904.65074074074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>45904.47331018518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>45904.59520833333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>45905.33233796297</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45904.81601851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>45825.35626157407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45150.39412037037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>45825.51634259259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>45908.50071759259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45834.48267361111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45825.66005787037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45646.55346064815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>45909.35702546296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>45908.36853009259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45834.47009259259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45909.61884259259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45402.46005787037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>45825.54019675926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>45911.35574074074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45911.34137731481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>45459.38876157408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>45915.55395833333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45915.58008101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>45825.88684027778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44743.57612268518</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45734.48722222223</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44942.52454861111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45015.59582175926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45831.55090277778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45922.56030092593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45359.37732638889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45832.64126157408</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>45925.3152662037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45925.63402777778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>45446.94362268518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>45925.52858796297</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44601.37392361111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45834.64814814815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45929.57760416667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44743</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45929.51806712963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45834.65471064814</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45929.67972222222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>45929.52040509259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>45068.46453703703</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>45930.54122685185</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>45929.75582175926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>45415.55523148148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>45839.45863425926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>45932</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>45773</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>45932</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>44257</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>45546.64791666667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         <v>45932</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45840.58383101852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>45939.34302083333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>45840.58173611111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44364.47981481482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>45639.71099537037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>45639.71262731482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>45939.34195601852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>45940.59493055556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>45440.38983796296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>45440.40162037037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>45842.81519675926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>45940.59416666667</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>45845.35856481481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>45257</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>45846.5428587963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>45075</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>45590.55503472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>45849.45528935185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44442</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>45713.62387731481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>45946.72012731482</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44592</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45946.36746527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45782</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>45478.41396990741</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44823.37871527778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44249</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45139.73614583333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44776</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45950.88504629629</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45632</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45834.64337962963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45951.85037037037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45951.88065972222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>45951.85413194444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45951.90053240741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44970</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45547.32871527778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>45734.45221064815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44901</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>45265</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44952</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44833.46141203704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45705.33614583333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44511</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45246.67354166666</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45958.36256944444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45958.36354166667</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44958.67679398148</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45387.6203587963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44236</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45037.56935185185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44952</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45698.60086805555</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45733.46701388889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45714.36677083333</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45966.45077546296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45882</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>45966.44347222222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>45966.42574074074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>45883.55738425926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>45966.46392361111</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45883.56460648148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44328</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>45971.46984953704</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45973.62712962963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45672.58420138889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>45973.66523148148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>45737.33689814815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>45075</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>45974.39293981482</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>45974.39509259259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45974.59179398148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45008</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45974.54357638889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45978.55325231481</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44742.33100694444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45978.65059027778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>46020.5050462963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44942.51903935185</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45981.55913194444</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45162.25072916667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45981.39206018519</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45982.86425925926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>45272.63121527778</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45085.67021990741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45982.85844907408</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>44907.55690972223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>45986.42119212963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45986.40865740741</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>46031.52755787037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>45561.36438657407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>46030.50331018519</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>45989.47519675926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>45428.46391203703</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>45327.61145833333</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>46030.56324074074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>46031.53226851852</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>46031.53541666667</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>46035.46143518519</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45993.38215277778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>46035.45893518518</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45993.29204861111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44855</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>46028</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44295</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45393.3578587963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45722.7066087963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45342</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45995.67278935185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45995.68126157407</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45995.68282407407</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45994.45475694445</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45994.48671296296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45994.48840277778</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45722.63233796296</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>46037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45632</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44428</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>46000</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>46000</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>46042.52597222223</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>46000</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>45326.67398148148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>45644.35127314815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>45755.44237268518</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>46000.70355324074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>45566.51762731482</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>46003</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>45994</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>45994</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44503</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22515,7 +22515,7 @@
         <v>45561.36818287037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>45624.84674768519</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>46044.56547453703</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>46003.5702662037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22743,7 +22743,7 @@
         <v>45279</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>46048.41366898148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22862,7 +22862,7 @@
         <v>44621</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>46048</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>46048.40251157407</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44432.57885416667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>46006.57706018518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>46006.57251157407</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>45615.60525462963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>45616.65384259259</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>46048.31030092593</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>45546.34902777777</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>45351.63478009259</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>44468</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45609.35231481482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45443</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>45121</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>45112</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>45404</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>44909.63509259259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>44648.46975694445</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44825.8475</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>45588.38049768518</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>44966.38423611111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>46056.43436342593</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>46056.42912037037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>46055.68174768519</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>44460</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>44875.48599537037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>45078</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>45162.62353009259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>45346.61512731481</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>45623.59274305555</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44781.39569444444</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>45538.46005787037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>45152.45721064815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>46059.57670138889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>45602.38895833334</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>45621.43332175926</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44823</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>45475.72972222222</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>45475.73616898148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>45636.39221064815</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44592</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>45217</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25333,7 +25333,7 @@
         <v>45762.67017361111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>45763.39306712963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25447,7 +25447,7 @@
         <v>45763.39765046296</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>45675.8675</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>44958.66506944445</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44643</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>45173.48878472222</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>45761.83359953704</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         <v>45624.8387037037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25903,7 +25903,7 @@
         <v>45355.76253472222</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>45609.34872685185</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>45609.39646990741</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>45616.63967592592</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26131,7 +26131,7 @@
         <v>45237</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26193,7 +26193,7 @@
         <v>45412.63640046296</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26250,7 +26250,7 @@
         <v>45572.34341435185</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26307,7 +26307,7 @@
         <v>44705.70888888889</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>45454.66747685185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26483,7 +26483,7 @@
         <v>45615.72082175926</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26540,7 +26540,7 @@
         <v>44600</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44701</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>45425.4653587963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44960.48239583334</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45467.61216435185</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>44614</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44601.60956018518</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>45531.46454861111</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>45103</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>44952</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>44952</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44952</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>44237</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>45565.41542824074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>45404.72262731481</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>44952.60282407407</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>44916.6887037037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>45182.36564814814</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>45763.40197916667</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>45763.40989583333</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44952</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44952</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44462</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44959</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45762.65144675926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44902</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>45533</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>45587.53412037037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>45702.47100694444</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>45187.47217592593</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28312,7 +28312,7 @@
         <v>45686.6608912037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         <v>44621.69106481481</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45150.39050925926</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44858.49765046296</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45119.59131944444</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>45415.5575925926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45049</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45049.6524537037</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45162</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45478.53525462963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44425.5575</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>45693.74730324074</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>45047</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>45600.62725694444</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>45600.63454861111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>45132</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29234,7 +29234,7 @@
         <v>45181.86436342593</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29291,7 +29291,7 @@
         <v>45217</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45092.58068287037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>44959.56513888889</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>45273</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44237</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44277</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29638,7 +29638,7 @@
         <v>44685</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29695,7 +29695,7 @@
         <v>45530.66170138889</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>45595.53287037037</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>45722.70744212963</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29866,7 +29866,7 @@
         <v>45189</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>44902</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>45541.39973379629</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>45151</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30094,7 +30094,7 @@
         <v>45520.36324074074</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30151,7 +30151,7 @@
         <v>45006</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30208,7 +30208,7 @@
         <v>44277.50083333333</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         <v>44382</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>44627.37660879629</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30384,7 +30384,7 @@
         <v>45603.408125</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>45049</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>45254.48559027778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44812</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30612,7 +30612,7 @@
         <v>44442</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30669,7 +30669,7 @@
         <v>45400.9152662037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>44300</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45533.35982638889</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>45272.60196759259</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>45628.4080787037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>45628.44436342592</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>45124.4128587963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31068,7 +31068,7 @@
         <v>45593.41086805556</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31125,7 +31125,7 @@
         <v>44388</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45566.37298611111</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45675.87553240741</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45777.435</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45731.49915509259</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45779.45350694445</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>44910</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31529,7 +31529,7 @@
         <v>45782.76021990741</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         <v>45785.37339120371</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>45785.42474537037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45785.39237268519</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45785.37185185185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45000.33078703703</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45785.40502314815</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>45785.40935185185</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>45786.34755787037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>45736.84825231481</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>45737.30388888889</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>45723.39030092592</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>45736.8590625</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>45743.55642361111</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>45723.38274305555</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>45743.5306712963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>45790.41216435185</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>45790.32974537037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>45743.55011574074</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>45790.41703703703</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>45719.39439814815</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>45713.39502314815</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>45713.37586805555</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>45737.31084490741</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>45737.31587962963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45743.52303240741</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45743.53940972222</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45792.67938657408</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45791.78855324074</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>45796.36909722222</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>45796.36421296297</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -575,7 +575,7 @@
         <v>45954.45479166666</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>45897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44601</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45460.42362268519</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45331.59417824074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44907</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45643.5128587963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>45833.33390046296</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44833.38484953704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45817.61070601852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44835</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45422.55388888889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45790.64148148148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>45188</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44616.34016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>45825.50337962963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45422.55782407407</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>45637.48934027777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45572</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>45937.60804398148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45588.39068287037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44601</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45281.73535879629</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45151</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44952</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45569.43392361111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>45294</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>45265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>45475.71474537037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>45475.74412037037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>45588.3856712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>45014.60708333334</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>45183</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>45799.65584490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45803.59976851852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>45817.60202546296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>44507.63101851852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44781.66103009259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44536</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44281.5744212963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44615.63362268519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44264</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44266</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44588.46016203704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44690</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44865</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>44832</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44266</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44298.47568287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44273</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44298.44777777778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>44733</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>44781.65829861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44378</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44386</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44459.53096064815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>44452</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44676.46662037037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44412</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>44442</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>44578</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>44412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>44799.53682870371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>44705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>44743.43195601852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>44720.48855324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>44376.87699074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44615</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44608</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44823</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44837.32274305556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>44657</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44364</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44349</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44685</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44685</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44705</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44705</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45673.57033564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45632.64731481481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45103.74606481481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45348</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>45196.44567129629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>44858.51763888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>45062.64560185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>45621.42699074074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>45698.61976851852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>44659</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>45201</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>45182.36677083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>45189.40020833333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>45118.91273148148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44895.50105324074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45769.62415509259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44368</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>45590.54883101852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>45198</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>45161.90960648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45384.43790509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>44952</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>44494</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44901.30459490741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44823.40733796296</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>44823</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45674.44443287037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45358.67704861111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>45384.79944444444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>45412.63944444444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45326.61966435185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>45151</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44895</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>44504</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>45197</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45587.52200231481</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45632.6547337963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>45162.59163194444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>45693.72674768518</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>45443</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>45817.47203703703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45002.33766203704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>45454.6241087963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>45544.4146412037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>45348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44659</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>45819.35086805555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>45773.45891203704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>45887.47719907408</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>45884.49962962963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45418.36640046296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45565.42386574074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45884.50131944445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>45597</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>45825.35626157407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>45825.51634259259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>45825.66005787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>45888.58700231482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>45825.54019675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>45202.49175925926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44545.71697916667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>45693.7809375</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44949</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45150.39412037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>45895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45825.88684027778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45402.46005787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45831.55090277778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45459.38876157408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45896.50040509259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45832.64126157408</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>45897.48766203703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>45804.48175925926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>45834.64814814815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>45833.32277777778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>44743.57612268518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45734.48722222223</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45834.65471064814</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45902.90766203704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45902.42664351852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45903.23393518518</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45839.45863425926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>44942.52454861111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>45015.59582175926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>45905.31484953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>45904.65920138889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>45904.65074074074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>45904.47331018518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45904.59520833333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>45905.33233796297</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45904.81601851852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45359.37732638889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45908.50071759259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45840.58383101852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45834.48267361111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45646.55346064815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45909.35702546296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>45908.36853009259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>45834.47009259259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>45909.61884259259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>45840.58173611111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>45911.35574074074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>45446.94362268518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>45911.34137731481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44601.37392361111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>45842.81519675926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44743</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45845.35856481481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45915.55395833333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45915.58008101852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>45846.5428587963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>45849.45528935185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>45713.62387731481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45068.46453703703</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>45415.55523148148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>45782</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45773</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44257</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45546.64791666667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44776</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45922.56030092593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45925.3152662037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45925.63402777778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45734.45221064815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45925.52858796297</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44364.47981481482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>45929.57760416667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>45639.71099537037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>45639.71262731482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>45929.51806712963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>45929.67972222222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>45929.52040509259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>45440.38983796296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>45440.40162037037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>45930.54122685185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>45929.75582175926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         <v>45257</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45932</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>45075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>45932</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>45590.55503472222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>45932</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44442</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>45478.41396990741</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44823.37871527778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45139.73614583333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>45882</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>45883.55738425926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45883.56460648148</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45939.34302083333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>45632</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44970</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45939.34195601852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45737.33689814815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45547.32871527778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44901</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>45940.59493055556</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45265</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45940.59416666667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44952</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44833.46141203704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45705.33614583333</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44511</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>45246.67354166666</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45946.72012731482</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45946.36746527778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>45950.88504629629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44958.67679398148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>45834.64337962963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>45951.85037037037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>45951.88065972222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>45951.85413194444</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>45951.90053240741</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>45387.6203587963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45037.56935185185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44952</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45698.60086805555</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45733.46701388889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45714.36677083333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45672.58420138889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45958.36256944444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>45958.36354166667</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>45075</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>45008</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44742.33100694444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44942.51903935185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45966.45077546296</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>45966.44347222222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45966.42574074074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45966.46392361111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45162.25072916667</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45272.63121527778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>45085.67021990741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45971.46984953704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>45973.62712962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45973.66523148148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45974.39293981482</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45974.39509259259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45974.59179398148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44907.55690972223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45974.54357638889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>45978.55325231481</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>45978.65059027778</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>45561.36438657407</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>45428.46391203703</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>45981.55913194444</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>45981.39206018519</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>45327.61145833333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>45982.86425925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45982.85844907408</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>45986.42119212963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44855</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45986.40865740741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44295</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45393.3578587963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45989.47519675926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45722.7066087963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45342</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>46035.46143518519</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45993.38215277778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>46035.45893518518</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45993.29204861111</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>45722.63233796296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45995.67278935185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45995.68126157407</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>45995.68282407407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>45994.45475694445</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>45994.48671296296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>45994.48840277778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>45632</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44428</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>46037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>45326.67398148148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>45644.35127314815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>45755.44237268518</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>46000</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>46000</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>46042.52597222223</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>46000</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>45566.51762731482</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>44503</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>45561.36818287037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>46000.70355324074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>45624.84674768519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>45279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>46003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45994</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>46044.56547453703</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>44432.57885416667</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>46003.5702662037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45615.60525462963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45616.65384259259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>46048.41366898148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>46048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45546.34902777777</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45351.63478009259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>46048.40251157407</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>46006.57706018518</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>46006.57251157407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44468</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45609.35231481482</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>46048.31030092593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45443</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45121</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45404</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44909.63509259259</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44648.46975694445</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44825.8475</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>45588.38049768518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44966.38423611111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22934,7 +22934,7 @@
         <v>44460</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22991,7 +22991,7 @@
         <v>44875.48599537037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>45078</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>45162.62353009259</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>46056.43436342593</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>45623.59274305555</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>46056.42912037037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>44781.39569444444</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>46055.68174768519</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45538.46005787037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45152.45721064815</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>45602.38895833334</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>45346.61512731481</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>46059.57670138889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>45621.43332175926</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>44823</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45475.72972222222</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45475.73616898148</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>45636.39221064815</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>46060.41461805555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>46020.5050462963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44592</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>45217</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>45762.67017361111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>45763.39306712963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>45763.39765046296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>45675.8675</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24478,7 +24478,7 @@
         <v>44958.66506944445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24535,7 +24535,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>44643</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>45173.48878472222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>45761.83359953704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>45624.8387037037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>45355.76253472222</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>46071.44307870371</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>45609.34872685185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>45609.39646990741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>45616.63967592592</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>45237</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>45412.63640046296</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>46031.53226851852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>46031.53541666667</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>46028</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>46030.56324074074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45572.34341435185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>46073.34993055555</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44705.70888888889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>46030.50331018519</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44264</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>45454.66747685185</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>46031.52755787037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>46073.35717592593</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>46073.35402777778</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>46073.35965277778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26027,7 +26027,7 @@
         <v>45615.72082175926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>44600</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44701</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45425.4653587963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44960.48239583334</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45467.61216435185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44614</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44601.60956018518</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45531.46454861111</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44952</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44952</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45565.41542824074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>45404.72262731481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44952.60282407407</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44916.6887037037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>45182.36564814814</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>45763.40197916667</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>45763.40989583333</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44952</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>44952</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>44462</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>45762.65144675926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>44902</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>45533</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>45587.53412037037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>45702.47100694444</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>45187.47217592593</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45686.6608912037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44621.69106481481</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45150.39050925926</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44858.49765046296</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45119.59131944444</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45415.5575925926</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45049.6524537037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>45478.53525462963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44425.5575</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>45693.74730324074</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>45047</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>45600.62725694444</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>45600.63454861111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>45132</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>45181.86436342593</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>45092.58068287037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>44959.56513888889</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45273</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44277</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>44685</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45530.66170138889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45595.53287037037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45722.70744212963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>45189</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44902</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45541.39973379629</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45151</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>45520.36324074074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>45006</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44277.50083333333</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44382</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44627.37660879629</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>45603.408125</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>45049</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>45254.48559027778</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29928,7 +29928,7 @@
         <v>44812</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29985,7 +29985,7 @@
         <v>44442</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>45400.9152662037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>44300</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>45533.35982638889</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>45272.60196759259</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         <v>45628.4080787037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>45628.44436342592</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30384,7 +30384,7 @@
         <v>45124.4128587963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>45593.41086805556</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>44388</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>45566.37298611111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30612,7 +30612,7 @@
         <v>45675.87553240741</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30669,7 +30669,7 @@
         <v>45777.435</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45731.49915509259</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45779.45350694445</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>44910</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30902,7 +30902,7 @@
         <v>45782.76021990741</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30959,7 +30959,7 @@
         <v>45785.37339120371</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31021,7 +31021,7 @@
         <v>45785.42474537037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>45785.39237268519</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45785.37185185185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>45000.33078703703</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>45785.40502314815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>45785.40935185185</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>45786.34755787037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>45736.84825231481</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>45737.30388888889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45723.39030092592</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45736.8590625</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>45743.55642361111</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>45723.38274305555</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>45743.5306712963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45790.41216435185</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45790.32974537037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45743.55011574074</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45790.41703703703</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45719.39439814815</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45713.39502314815</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45713.37586805555</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45737.31084490741</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>45737.31587962963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>45743.52303240741</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>45743.53940972222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>45792.67938657408</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32538,7 +32538,7 @@
         <v>45791.78855324074</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>45796.36909722222</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>45796.36421296297</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>45799.42884259259</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>45671.39305555556</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>45328.46517361111</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>45666.41128472222</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>45798.3478587963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>45798.35645833334</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>45803.59505787037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>45804.39546296297</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>45811.34417824074</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>45470.60967592592</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>45810.68019675926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>45812.32118055555</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -575,7 +575,7 @@
         <v>45954.45479166666</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>45897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44601</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45460.42362268519</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45331.59417824074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44907</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45643.5128587963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>45833.33390046296</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44833.38484953704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45817.61070601852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44835</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45422.55388888889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45790.64148148148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>45188</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44616.34016203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>45825.50337962963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45422.55782407407</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>45637.48934027777</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45572</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>45937.60804398148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45588.39068287037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44601</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45281.73535879629</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45151</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44952</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>45569.43392361111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>45294</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>45265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44818</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>45475.71474537037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>45475.74412037037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>45588.3856712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>45014.60708333334</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>45183</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>45799.65584490741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45803.59976851852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>45817.60202546296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>44507.63101851852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44781.66103009259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44536</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44281.5744212963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44615.63362268519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44264</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44446</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44266</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44588.46016203704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44690</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44865</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>44832</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44266</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44298.47568287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44273</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44298.44777777778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>44733</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>44781.65829861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44378</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44386</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44459.53096064815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>44452</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44676.46662037037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44412</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>44442</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>44578</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>44412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>44799.53682870371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>44705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>44743.43195601852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>44720.48855324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>44376.87699074074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44615</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44608</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44823</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44837.32274305556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>44657</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44364</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44349</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44685</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44685</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44705</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44705</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45673.57033564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45632.64731481481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45103.74606481481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45348</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>45196.44567129629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>44858.51763888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         <v>45062.64560185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>45621.42699074074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>45698.61976851852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         <v>44659</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>45201</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>45182.36677083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>45189.40020833333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>45118.91273148148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44895.50105324074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45769.62415509259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44368</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>45590.54883101852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         <v>45198</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>45161.90960648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         <v>45384.43790509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         <v>44952</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>44494</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44901.30459490741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         <v>44823.40733796296</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>44823</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45674.44443287037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45358.67704861111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>45384.79944444444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>45412.63944444444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45326.61966435185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>45151</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>44895</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>44504</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>45197</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45587.52200231481</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45632.6547337963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>45162.59163194444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>45693.72674768518</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>45443</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>45817.47203703703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45002.33766203704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>45454.6241087963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>45544.4146412037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>45348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44659</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>45819.35086805555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>45773.45891203704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>45887.47719907408</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>45884.49962962963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>44427</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45418.36640046296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45565.42386574074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45884.50131944445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         <v>45597</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         <v>45825.35626157407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         <v>45825.51634259259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>45825.66005787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>45888.58700231482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>45825.54019675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         <v>45202.49175925926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>44545.71697916667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>45693.7809375</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44949</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>45150.39412037037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>45895</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>45825.88684027778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>45402.46005787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>45831.55090277778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>45459.38876157408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45896.50040509259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>45832.64126157408</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>45897.48766203703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11176,7 +11176,7 @@
         <v>45804.48175925926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>45834.64814814815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>45833.32277777778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>44743.57612268518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45734.48722222223</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45834.65471064814</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45902.90766203704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45902.42664351852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>45903.23393518518</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>45839.45863425926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>44942.52454861111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>45015.59582175926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>45905.31484953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>45904.65920138889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>45904.65074074074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>45904.47331018518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45904.59520833333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>45905.33233796297</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45904.81601851852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45359.37732638889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45908.50071759259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45840.58383101852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45834.48267361111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45646.55346064815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45909.35702546296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>45908.36853009259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>45834.47009259259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>45909.61884259259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>45840.58173611111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>45911.35574074074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>45446.94362268518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>45911.34137731481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44601.37392361111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>45842.81519675926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44743</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45845.35856481481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45915.55395833333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45915.58008101852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>45846.5428587963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>45849.45528935185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>45713.62387731481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45068.46453703703</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>45415.55523148148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>45782</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45773</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44257</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45546.64791666667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44776</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45922.56030092593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45925.3152662037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45925.63402777778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45734.45221064815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45925.52858796297</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44364.47981481482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>45929.57760416667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>45639.71099537037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>45639.71262731482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>45929.51806712963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>45929.67972222222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>45929.52040509259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>45440.38983796296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>45440.40162037037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>45930.54122685185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>45929.75582175926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         <v>45257</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45932</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14978,7 +14978,7 @@
         <v>45075</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15035,7 +15035,7 @@
         <v>45932</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>45590.55503472222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>45932</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44442</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>45478.41396990741</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44823.37871527778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44249</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45139.73614583333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>45882</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>45883.55738425926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45883.56460648148</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45939.34302083333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>45632</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44970</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>45939.34195601852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>45737.33689814815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45547.32871527778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44901</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>45940.59493055556</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45265</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45940.59416666667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44952</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44833.46141203704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45705.33614583333</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44511</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>45246.67354166666</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>45946.72012731482</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45946.36746527778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>45950.88504629629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44958.67679398148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>45834.64337962963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>45951.85037037037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>45951.88065972222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>45951.85413194444</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>45951.90053240741</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>45387.6203587963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45037.56935185185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>44952</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45698.60086805555</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45733.46701388889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45714.36677083333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>44328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45672.58420138889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45958.36256944444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>45958.36354166667</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>45075</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>45008</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44742.33100694444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44942.51903935185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45966.45077546296</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>45966.44347222222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45966.42574074074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45966.46392361111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45162.25072916667</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45272.63121527778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>45085.67021990741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45971.46984953704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>45973.62712962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45973.66523148148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45974.39293981482</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45974.39509259259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45974.59179398148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>44907.55690972223</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45974.54357638889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>45978.55325231481</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>45978.65059027778</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>45561.36438657407</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>45428.46391203703</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>45981.55913194444</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>45981.39206018519</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>45327.61145833333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>45982.86425925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45982.85844907408</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>45986.42119212963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44855</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45986.40865740741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>44295</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45393.3578587963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45989.47519675926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45722.7066087963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45342</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>46035.46143518519</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45993.38215277778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>46035.45893518518</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45993.29204861111</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>45722.63233796296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45995.67278935185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45995.68126157407</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>45995.68282407407</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>45994.45475694445</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>45994.48671296296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>45994.48840277778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>45632</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44428</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>46037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>45326.67398148148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>45644.35127314815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>45755.44237268518</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>46000</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>46000</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>46042.52597222223</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>46000</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>45566.51762731482</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>44503</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21090,7 +21090,7 @@
         <v>45561.36818287037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>46000.70355324074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>45624.84674768519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>45279</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>46003</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45994</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>44621</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>46044.56547453703</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>44432.57885416667</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>46003.5702662037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45615.60525462963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45616.65384259259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>46048.41366898148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>46048</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45546.34902777777</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45351.63478009259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>46048.40251157407</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>46006.57706018518</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>46006.57251157407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>44468</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45609.35231481482</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>46048.31030092593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45443</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45121</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45404</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44909.63509259259</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44648.46975694445</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44825.8475</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>45588.38049768518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44966.38423611111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22934,7 +22934,7 @@
         <v>44460</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22991,7 +22991,7 @@
         <v>44875.48599537037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>45078</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>45162.62353009259</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>46056.43436342593</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>45623.59274305555</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>46056.42912037037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>44781.39569444444</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>46055.68174768519</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45538.46005787037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45152.45721064815</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>45602.38895833334</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>45346.61512731481</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>46059.57670138889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>45621.43332175926</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>44823</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45475.72972222222</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45475.73616898148</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>45636.39221064815</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>46060.41461805555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>46020.5050462963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44592</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>45217</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24250,7 +24250,7 @@
         <v>45762.67017361111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>45763.39306712963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         <v>45763.39765046296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24421,7 +24421,7 @@
         <v>45675.8675</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24478,7 +24478,7 @@
         <v>44958.66506944445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24535,7 +24535,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24592,7 +24592,7 @@
         <v>44643</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24649,7 +24649,7 @@
         <v>45173.48878472222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         <v>45761.83359953704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>45624.8387037037</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>45355.76253472222</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>46071.44307870371</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>45609.34872685185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>45609.39646990741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>45616.63967592592</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25105,7 +25105,7 @@
         <v>45237</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>45412.63640046296</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>46031.53226851852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>46031.53541666667</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>46028</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>46030.56324074074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>45572.34341435185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>46073.34993055555</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44705.70888888889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>46030.50331018519</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44264</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>45454.66747685185</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>46031.52755787037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>46073.35717592593</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>46073.35402777778</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>46073.35965277778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26027,7 +26027,7 @@
         <v>45615.72082175926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>44600</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         <v>44701</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>45425.4653587963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44960.48239583334</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45467.61216435185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>44614</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26431,7 +26431,7 @@
         <v>44601.60956018518</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26488,7 +26488,7 @@
         <v>45531.46454861111</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26545,7 +26545,7 @@
         <v>45103</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26602,7 +26602,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         <v>44952</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26716,7 +26716,7 @@
         <v>44952</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45565.41542824074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26830,7 +26830,7 @@
         <v>45404.72262731481</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44952.60282407407</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44916.6887037037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27001,7 +27001,7 @@
         <v>45182.36564814814</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27058,7 +27058,7 @@
         <v>45763.40197916667</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27115,7 +27115,7 @@
         <v>45763.40989583333</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44952</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27229,7 +27229,7 @@
         <v>44952</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>44462</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>44959</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27400,7 +27400,7 @@
         <v>45762.65144675926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>44902</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>45533</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>45587.53412037037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>45702.47100694444</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>45187.47217592593</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45686.6608912037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44621.69106481481</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45150.39050925926</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>44858.49765046296</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45119.59131944444</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45415.5575925926</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45049</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45049.6524537037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>45162</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>45478.53525462963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44425.5575</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>45693.74730324074</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>45047</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>45600.62725694444</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>45600.63454861111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28607,7 +28607,7 @@
         <v>45132</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>45181.86436342593</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>45217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>45092.58068287037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>44959.56513888889</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45273</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44277</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>44685</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45530.66170138889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45595.53287037037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45722.70744212963</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>45189</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         <v>44902</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         <v>45541.39973379629</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45151</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>45520.36324074074</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>45006</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>44277.50083333333</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>44382</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>44627.37660879629</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29757,7 +29757,7 @@
         <v>45603.408125</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>45049</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29871,7 +29871,7 @@
         <v>45254.48559027778</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29928,7 +29928,7 @@
         <v>44812</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29985,7 +29985,7 @@
         <v>44442</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>45400.9152662037</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>44300</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>45533.35982638889</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>45272.60196759259</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         <v>45628.4080787037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>45628.44436342592</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30384,7 +30384,7 @@
         <v>45124.4128587963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>45593.41086805556</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>44388</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>45566.37298611111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30612,7 +30612,7 @@
         <v>45675.87553240741</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30669,7 +30669,7 @@
         <v>45777.435</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45731.49915509259</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>45779.45350694445</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>44910</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30902,7 +30902,7 @@
         <v>45782.76021990741</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30959,7 +30959,7 @@
         <v>45785.37339120371</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31021,7 +31021,7 @@
         <v>45785.42474537037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>45785.39237268519</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31140,7 +31140,7 @@
         <v>45785.37185185185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>45000.33078703703</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>45785.40502314815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>45785.40935185185</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>45786.34755787037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>45736.84825231481</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>45737.30388888889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45723.39030092592</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45736.8590625</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>45743.55642361111</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>45723.38274305555</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>45743.5306712963</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45790.41216435185</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45790.32974537037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45743.55011574074</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45790.41703703703</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45719.39439814815</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45713.39502314815</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45713.37586805555</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>45737.31084490741</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>45737.31587962963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>45743.52303240741</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>45743.53940972222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>45792.67938657408</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32538,7 +32538,7 @@
         <v>45791.78855324074</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>45796.36909722222</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>45796.36421296297</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>45799.42884259259</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>45671.39305555556</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>45328.46517361111</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>45666.41128472222</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>45798.3478587963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>45798.35645833334</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>45803.59505787037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>45804.39546296297</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>45811.34417824074</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33227,7 +33227,7 @@
         <v>45470.60967592592</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33284,7 +33284,7 @@
         <v>45810.68019675926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33341,7 +33341,7 @@
         <v>45812.32118055555</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -575,7 +575,7 @@
         <v>45954.45479166666</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>45897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>44601</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45460.42362268519</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45331.59417824074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45643.5128587963</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44907</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>45833.33390046296</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44833.38484953704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>45817.61070601852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>44835</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45422.55388888889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45790.64148148148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44616.34016203704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>45188</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>45825.50337962963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45422.55782407407</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>45588.39068287037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45572</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>44601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>45637.48934027777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>45937.60804398148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45281.73535879629</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45475.71474537037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45817.60202546296</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45588.3856712963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>45569.43392361111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>45475.74412037037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>45294</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45014.60708333334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>45120</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45151</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>44818</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>45265</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45183</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45799.65584490741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45803.59976851852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>44507.63101851852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44781.66103009259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44533</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44536</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44281.5744212963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44615.63362268519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44264</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44266</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44446</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44588.46016203704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44690</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44865</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>44832</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44266</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44298.47568287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44273</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44298.44777777778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>44733</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>44781.65829861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44378</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>44386</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>44459.53096064815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>44452</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>44442</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44676.46662037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>44412</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         <v>44578</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>44412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>44799.53682870371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         <v>44705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>44743.43195601852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>44615</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         <v>44720.48855324074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44376.87699074074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44608</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44823</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>44837.32274305556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>44657</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44364</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44349</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44685</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44685</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44705</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44705</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44825.8475</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45702.47100694444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44257</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>45257</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>45412.63944444444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>45393.3578587963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45359.37732638889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45412.63640046296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45531.46454861111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45217</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>45440.38983796296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>45440.40162037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>45428.46391203703</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>44382</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>45187.47217592593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>45443</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>44462</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>44895</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44823.37871527778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44833.46141203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>45119.59131944444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>45400.9152662037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         <v>45279</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>45454.66747685185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>44855</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>45533.35982638889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>44942.51903935185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>45342</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>44895.50105324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>45546.34902777777</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>45478.53525462963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>45478.41396990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>45475.72972222222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>45475.73616898148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>45632</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>44875.48599537037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>45246.67354166666</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>44902</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>44909.63509259259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>44601.60956018518</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44901.30459490741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>45597</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45804.39546296297</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>44648.46975694445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>45202.49175925926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>45884.49962962963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>45644.35127314815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>45883.56460648148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>45883.55738425926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44659</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>45470.60967592592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45887.47719907408</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45810.68019675926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45737.33689814815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45603.408125</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45773.45891203704</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>44952</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45812.32118055555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>45888.58700231482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>45811.34417824074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>44600</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45118.91273148148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45565.42386574074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>44442</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45817.47203703703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45358.67704861111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>45047</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>45541.39973379629</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>45632.64731481481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44705.70888888889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>45722.70744212963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>45587.52200231481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>45819.35086805555</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>45150.39050925926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>45595.53287037037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>45895</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11357,7 +11357,7 @@
         <v>45896.50040509259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>45804.48175925926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         <v>45833.32277777778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>45897.48766203703</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
         <v>45825.54019675926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45825.51634259259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45825.88684027778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11756,7 +11756,7 @@
         <v>45825.35626157407</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>45825.66005787037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>45902.42664351852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>45831.55090277778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>45832.64126157408</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>45904.59520833333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>45903.23393518518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45904.65920138889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45904.47331018518</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45904.65074074074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45902.90766203704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45588.38049768518</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>45834.47009259259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>45834.65471064814</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>45834.64814814815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>45908.50071759259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>45189</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>45834.48267361111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>45904.81601851852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45646.55346064815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>45908.36853009259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>45602.38895833334</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>45624.8387037037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>45905.31484953704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>45905.33233796297</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>45762.67017361111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>45839.45863425926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>45840.58173611111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>45840.58383101852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>45909.61884259259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>45624.84674768519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>45909.35702546296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>45006</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>44494</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>45037.56935185185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45911.34137731481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>44952.60282407407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>44958.67679398148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>45846.5428587963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45845.35856481481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>45842.81519675926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44952</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>45075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>45911.35574074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>45761.83359953704</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>45713.62387731481</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>45782</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>45849.45528935185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>45161.90960648148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>45915.58008101852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>45162.59163194444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44364.47981481482</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>45590.55503472222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44776</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>45915.55395833333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>45615.72082175926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>45002.33766203704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>45922.56030092593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>44295</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15221,7 +15221,7 @@
         <v>45621.42699074074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
         <v>45590.54883101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>45062.64560185185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15392,7 +15392,7 @@
         <v>45734.45221064815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>45722.7066087963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>45925.63402777778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>45925.3152662037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>45632.6547337963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>45925.52858796297</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45722.63233796296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>45929.57760416667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>45930.54122685185</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45929.67972222222</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>45693.7809375</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45189.40020833333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>45929.75582175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>45929.52040509259</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45929.51806712963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45733.46701388889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44425.5575</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45181.86436342593</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45150.39412037037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>45882</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45530.66170138889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>44277.50083333333</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>45197</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45932</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45932</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44368</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>45932</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>45547.32871527778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>45348</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>45884.50131944445</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45940.59493055556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>45940.59416666667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45939.34195601852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45939.34302083333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45769.62415509259</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         <v>45418.36640046296</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>45425.4653587963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         <v>45049</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17635,7 +17635,7 @@
         <v>45049.6524537037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17692,7 +17692,7 @@
         <v>45946.72012731482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>45946.36746527778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>45467.61216435185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45272.60196759259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45546.64791666667</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44858.49765046296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45693.74730324074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45834.64337962963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45951.85413194444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45951.90053240741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>45092.58068287037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>45951.85037037037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>45951.88065972222</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>45950.88504629629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44468</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45273</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45520.36324074074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45958.36256944444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45958.36354166667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45015.59582175926</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>44959.56513888889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>44902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>44959</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45103</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45121</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44545.71697916667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>45075</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>45355.76253472222</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44949</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>45966.45077546296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>45966.46392361111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>45966.42574074074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>45254.48559027778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>45966.44347222222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19645,7 +19645,7 @@
         <v>44621.69106481481</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44781.39569444444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>45348</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45971.46984953704</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>45974.54357638889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>45973.66523148148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>45384.79944444444</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>45974.39293981482</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>45974.39509259259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45404.72262731481</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>45973.62712962963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>45565.41542824074</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>45974.59179398148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45104</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>45978.65059027778</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45978.55325231481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45566.51762731482</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>44621</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20686,7 +20686,7 @@
         <v>45632</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20743,7 +20743,7 @@
         <v>45162.25072916667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>45415.55523148148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
         <v>45615.60525462963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>45132</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         <v>45572.34341435185</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21028,7 +21028,7 @@
         <v>45621.43332175926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45981.39206018519</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45981.55913194444</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45587.53412037037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45986.42119212963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
         <v>45982.86425925926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>45986.40865740741</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>45982.85844907408</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45616.65384259259</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45734.48722222223</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45636.39221064815</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45989.47519675926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>45993.29204861111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>45993.38215277778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>45994.45475694445</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45994.48840277778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>45639.71099537037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>45639.71262731482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>45162</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>45994.48671296296</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>45078</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>44743</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>45995.68282407407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>45995.67278935185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>45995.68126157407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>45182.36564814814</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         <v>46000</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>45674.44443287037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>46000</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>44601.37392361111</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>45763.40989583333</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22805,7 +22805,7 @@
         <v>46042.52597222223</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>46000</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>44643</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45628.44436342592</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45628.4080787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>46000.70355324074</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45196.44567129629</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>45994</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>45994</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>46044.56547453703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45609.35231481482</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>46006.57251157407</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>46048.40251157407</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44858.51763888889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>45162.62353009259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>46048.31030092593</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>46048.41366898148</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>46006.57706018518</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>44264</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>46003</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>46048</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>46003.5702662037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>45755.44237268518</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>45686.6608912037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44743.57612268518</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>45773</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>44614</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>45763.40197916667</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>45459.38876157408</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44659</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44823</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>45705.33614583333</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>46056.42912037037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>46055.68174768519</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>46056.43436342593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>45201</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>46059.57670138889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44823</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>46020.5050462963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>45346.61512731481</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>46060.41461805555</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>45272.63121527778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44742.33100694444</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>44388</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>44460</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44442</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45763.39306712963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45763.39765046296</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>44952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25784,7 +25784,7 @@
         <v>45326.61966435185</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25841,7 +25841,7 @@
         <v>44958.66506944445</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>46071.44307870371</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>46030.56324074074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>45609.39646990741</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>46028</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>46030.50331018519</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44504</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>46073.34993055555</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>46073.35717592593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>46073.35402777778</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>46073.35965277778</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>45538.46005787037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>44432.57885416667</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>46031.52755787037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>45446.94362268518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>45533</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45623.59274305555</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>46031.53226851852</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>46031.53541666667</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>46035.45893518518</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>46035.46143518519</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27038,7 +27038,7 @@
         <v>44300</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27095,7 +27095,7 @@
         <v>44966.38423611111</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27152,7 +27152,7 @@
         <v>44427</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27209,7 +27209,7 @@
         <v>44627.37660879629</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44952</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45561.36438657407</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27380,7 +27380,7 @@
         <v>45443</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44592</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>46080.56409722222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45387.6203587963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>44970</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45402.46005787037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>45593.41086805556</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>44916.6887037037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>44328</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44823.40733796296</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>46080.54673611111</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>46080.57310185185</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>46037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>45600.62725694444</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>45600.63454861111</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>44428</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>44685</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>45151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28436,7 +28436,7 @@
         <v>45698.60086805555</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28493,7 +28493,7 @@
         <v>45049</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28550,7 +28550,7 @@
         <v>45237</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28612,7 +28612,7 @@
         <v>44511</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28669,7 +28669,7 @@
         <v>44942.52454861111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>45327.61145833333</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>45351.63478009259</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         <v>45762.65144675926</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28902,7 +28902,7 @@
         <v>45404</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28959,7 +28959,7 @@
         <v>45609.34872685185</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>45173.48878472222</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>44952</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>44952</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>45675.8675</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45454.6241087963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>45672.58420138889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>45561.36818287037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         <v>45152.45721064815</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29477,7 +29477,7 @@
         <v>45085.67021990741</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29534,7 +29534,7 @@
         <v>45415.5575925926</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29591,7 +29591,7 @@
         <v>44901</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29648,7 +29648,7 @@
         <v>45326.67398148148</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>45714.36677083333</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45673.57033564815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>45068.46453703703</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>45139.73614583333</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>45112</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>44592</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44960.48239583334</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>44503</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45698.61976851852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45008</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>45182.36677083333</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>45124.4128587963</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>45103.74606481481</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>45544.4146412037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>45616.63967592592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>44907.55690972223</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30622,7 +30622,7 @@
         <v>45384.43790509259</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30679,7 +30679,7 @@
         <v>45693.72674768518</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30736,7 +30736,7 @@
         <v>45265</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30793,7 +30793,7 @@
         <v>45198</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30850,7 +30850,7 @@
         <v>44812</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45151</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30964,7 +30964,7 @@
         <v>45675.87553240741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31021,7 +31021,7 @@
         <v>45731.49915509259</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31078,7 +31078,7 @@
         <v>45566.37298611111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31135,7 +31135,7 @@
         <v>45777.435</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31192,7 +31192,7 @@
         <v>45779.45350694445</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31249,7 +31249,7 @@
         <v>44910</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31311,7 +31311,7 @@
         <v>45782.76021990741</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31368,7 +31368,7 @@
         <v>45786.34755787037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31425,7 +31425,7 @@
         <v>45000.33078703703</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45785.37185185185</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31544,7 +31544,7 @@
         <v>45785.42474537037</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31601,7 +31601,7 @@
         <v>45785.39237268519</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>45785.40502314815</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>45785.40935185185</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45785.37339120371</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>45790.41703703703</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>45790.32974537037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>45790.41216435185</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45713.39502314815</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>45737.31084490741</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45743.55011574074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45791.78855324074</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>45723.39030092592</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45723.38274305555</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>45792.67938657408</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>45737.31587962963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32486,7 +32486,7 @@
         <v>45719.39439814815</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>45713.37586805555</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>45736.84825231481</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>45743.52303240741</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>45743.53940972222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>45743.55642361111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>45743.5306712963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>45736.8590625</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>45737.30388888889</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>45796.36421296297</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>45796.36909722222</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>45798.35645833334</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>45666.41128472222</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>45798.3478587963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33294,7 +33294,7 @@
         <v>45328.46517361111</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33351,7 +33351,7 @@
         <v>45671.39305555556</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>45799.42884259259</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33465,7 +33465,7 @@
         <v>45803.59505787037</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
